--- a/biology/Botanique/Tillandsia_cereicola/Tillandsia_cereicola.xlsx
+++ b/biology/Botanique/Tillandsia_cereicola/Tillandsia_cereicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia cereicola Mez est une plante de la famille des Bromeliaceae.
 Le terme cereicola, qui signifie « habitant des cierges », se réfère au fait que cette plante se développe souvent en épiphyte sur les grands cactus colonnaires.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia cereicola Mez, in Repert. Spec. Nov. Regni Veg. 3: 34 (1906)
-Diagnose originale[1] :
+Diagnose originale :
 « Foliis multis dense utriculatim rosulatis, utrinque lepidibus e majoribus, subadpressis obtectis ferruginascenti-incanis; inflorescentia pendula, e spicis 3-4 +/- 18-floris, valde elongatis subpinnatim composita; bracteis florigeris manifeste imbricatis axinque fere omnino obtegentibus chartaceis, glabris, sepala longe superantibus; floribus strictissime erectis; sepalis subaequaliter liberis; petalis violaceis (ex Weberbauer!), quam stamina brevioribus; stylo perlongo. »
-Type : leg. A. Weberbauer, n° 3025 ; « in regionibus apertis alt. 2200 m, prope Caraz, dept Ancachs, 21. Majo florens » ; Holotypus B (Herb. Berol.)[1].
+Type : leg. A. Weberbauer, n° 3025 ; « in regionibus apertis alt. 2200 m, prope Caraz, dept Ancachs, 21. Majo florens » ; Holotypus B (Herb. Berol.).
 </t>
         </is>
       </c>
@@ -548,10 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-(aucune)
-Synonymie taxonomique
-Vriesea cereicola (Mez) L.B.Sm[2].</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
         </is>
       </c>
     </row>
@@ -576,10 +593,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vriesea cereicola (Mez) L.B.Sm.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,10 +629,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -628,14 +657,44 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tillandsia_cereicola</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_cereicola</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Amérique du sud :
  Pérou
-Ancash[1]</t>
+Ancash</t>
         </is>
       </c>
     </row>
